--- a/migforecasting/clustering/for paper/medians of subclusters.xlsx
+++ b/migforecasting/clustering/for paper/medians of subclusters.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
